--- a/data/subject_codes.xlsx
+++ b/data/subject_codes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,7 +1096,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MAT302</t>
+          <t>LUNCH_DAY_1_HOUR_4</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MAT304R01</t>
+          <t>LUNCH_DAY_1_HOUR_5</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MAT310</t>
+          <t>LUNCH_DAY_2_HOUR_4</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MAT330R01</t>
+          <t>LUNCH_DAY_2_HOUR_5</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MAT331</t>
+          <t>LUNCH_DAY_3_HOUR_4</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MAT332</t>
+          <t>LUNCH_DAY_3_HOUR_5</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MGT207</t>
+          <t>LUNCH_DAY_4_HOUR_4</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MGT222</t>
+          <t>LUNCH_DAY_4_HOUR_5</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MINOR_4</t>
+          <t>LUNCH_DAY_5_HOUR_4</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MINOR_6</t>
+          <t>LUNCH_DAY_5_HOUR_5</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,12 +1216,132 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>MAT302</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SUB_064</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MAT304R01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SUB_065</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MAT310</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SUB_066</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MAT330R01</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SUB_067</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MAT331</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SUB_068</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MAT332</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SUB_069</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MGT207</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SUB_070</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MGT222</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SUB_071</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MINOR_4</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SUB_072</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MINOR_6</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SUB_073</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
           <t>TNP102R01</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>SUB_064</t>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SUB_074</t>
         </is>
       </c>
     </row>

--- a/data/subject_codes.xlsx
+++ b/data/subject_codes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>COM117</t>
+          <t>BLOCKED_141</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CSE202</t>
+          <t>BLOCKED_142</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CSE205R02</t>
+          <t>BLOCKED_143</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CSE206R02</t>
+          <t>LUNCH_DAY_1_HOUR_4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CSE207R01</t>
+          <t>LUNCH_DAY_1_HOUR_5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CSE215</t>
+          <t>LUNCH_DAY_2_HOUR_4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CSE218</t>
+          <t>LUNCH_DAY_2_HOUR_5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CSE219R01</t>
+          <t>LUNCH_DAY_3_HOUR_4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CSE304</t>
+          <t>LUNCH_DAY_3_HOUR_5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CSE305R01</t>
+          <t>LUNCH_DAY_4_HOUR_4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CSE306R01</t>
+          <t>LUNCH_DAY_4_HOUR_5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CSE307</t>
+          <t>LUNCH_DAY_5_HOUR_4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CSE308</t>
+          <t>LUNCH_DAY_5_HOUR_5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CSE309R01</t>
+          <t>XXA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CSE313</t>
+          <t>XXAB</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CSE314R02</t>
+          <t>XXAC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CSE315R02</t>
+          <t>XXAD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CSE318</t>
+          <t>XXAE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CSE319</t>
+          <t>XXAF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CSE322</t>
+          <t>XXAH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CSE323R01</t>
+          <t>XXAI</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CSE334R01</t>
+          <t>XXAJ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CSE335</t>
+          <t>XXAK</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CSE402</t>
+          <t>XXAL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CSE403</t>
+          <t>XXAM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CSE405R02</t>
+          <t>XXAN</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CSE413R01</t>
+          <t>XXAO</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CSE415R02</t>
+          <t>XXAP</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CSE432R01</t>
+          <t>XXAQ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CSE433</t>
+          <t>XXAR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CSE434</t>
+          <t>XXAS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ECE312</t>
+          <t>XXAT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ECE313</t>
+          <t>XXAU</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ECE314</t>
+          <t>XXAV</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ENG212</t>
+          <t>XXAW</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ENG316</t>
+          <t>XXAX</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INT102R01</t>
+          <t>XXAY</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>INT103R01</t>
+          <t>XXAZ</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>INT302R01</t>
+          <t>XXB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>INT303R01</t>
+          <t>XXBB</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>INT307R01</t>
+          <t>XXBC</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>INT309</t>
+          <t>XXBD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>INT313</t>
+          <t>XXBE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>INT314</t>
+          <t>XXBF</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>INT315</t>
+          <t>XXBG</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>INT320</t>
+          <t>XXBH</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>INT321</t>
+          <t>XXBI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INT322</t>
+          <t>XXBJ</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INT323</t>
+          <t>XXBK</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>INT405R02</t>
+          <t>XXBL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>INT407</t>
+          <t>XXBM</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>INT420</t>
+          <t>XXBN</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>INT427</t>
+          <t>XXBO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>INT441R01</t>
+          <t>XXBP</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_1_HOUR_4</t>
+          <t>XXC</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_1_HOUR_5</t>
+          <t>XXD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_2_HOUR_4</t>
+          <t>XXE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_2_HOUR_5</t>
+          <t>XXF</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_3_HOUR_4</t>
+          <t>XXH</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_3_HOUR_5</t>
+          <t>XXI</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_4_HOUR_4</t>
+          <t>XXJ</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_4_HOUR_5</t>
+          <t>XXK</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_5_HOUR_4</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LUNCH_DAY_5_HOUR_5</t>
+          <t>XXM</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MAT302</t>
+          <t>XXN</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MAT304R01</t>
+          <t>XXO</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MAT310</t>
+          <t>XXP</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MAT330R01</t>
+          <t>XXR</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MAT331</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MAT332</t>
+          <t>XXT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MGT207</t>
+          <t>XXU</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MGT222</t>
+          <t>XXV</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MINOR_4</t>
+          <t>XXW</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MINOR_6</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,12 +1336,24 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TNP102R01</t>
+          <t>XXY</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>SUB_074</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>XXZ</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SUB_075</t>
         </is>
       </c>
     </row>
